--- a/New_parameters.xlsx
+++ b/New_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="Uranium" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +67,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -73,6 +88,3221 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Uranium!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Uranium!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Uranium!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0CA-41DE-9DAF-84048FB2564A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Uranium!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Uranium!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>55.066079295154182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.48458149779735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.916299559471369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.713656387665196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.48458149779735</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.85022026431718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.092511013215855</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.863436123348016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.647577092511014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.85022026431718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.255506607929512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.471365638766521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.471365638766521</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Uranium!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0CA-41DE-9DAF-84048FB2564A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="478413352"/>
+        <c:axId val="478413680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="478413352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478413680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478413680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478413352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kohle!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kohle!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kohle!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85BB-4F60-A003-B35B5CBC1118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Kohle!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Kohle!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Kohle!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85BB-4F60-A003-B35B5CBC1118}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="471327480"/>
+        <c:axId val="471327808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="471327480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471327808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471327808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471327480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LIBOR!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LIBOR!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LIBOR!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECDE-45FB-8A65-D086D76E374C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LIBOR!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Old</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>LIBOR!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LIBOR!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ECDE-45FB-8A65-D086D76E374C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="469040768"/>
+        <c:axId val="469041752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="469040768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469041752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469041752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469040768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,357 +3568,507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2009</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="C2" s="2">
+        <v>55.066079295154182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="C3" s="2">
+        <v>70.48458149779735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2011</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="C4" s="2">
+        <v>96.916299559471369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2012</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="C5" s="2">
+        <v>94.713656387665196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C6" s="2">
+        <v>70.48458149779735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="C7" s="2">
+        <v>41.85022026431718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="C8" s="2">
+        <v>77.092511013215855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="C9" s="2">
+        <v>52.863436123348016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="C10" s="2">
+        <v>39.647577092511014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2019</v>
       </c>
       <c r="B11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="2">
+        <v>41.85022026431718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46.255506607929512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="C13" s="2">
+        <v>59.471365638766521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>39</v>
       </c>
+      <c r="C14" s="2">
+        <v>59.471365638766521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2009</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="C2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2010</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2011</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2012</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="C6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="C7" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2016</v>
       </c>
       <c r="B8">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2019</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="C13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2021</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>144</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2009</v>
       </c>
-      <c r="B1">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="B2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2010</v>
       </c>
-      <c r="B2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="B3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2011</v>
       </c>
-      <c r="B3">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="B4">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="C4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2012</v>
       </c>
-      <c r="B4">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="B5">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2013</v>
       </c>
-      <c r="B5">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B6">
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2014</v>
       </c>
-      <c r="B6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B7">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B7">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="B8">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="B9">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="B10">
+        <v>1.47E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2018</v>
       </c>
-      <c r="B10">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="B11">
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2019</v>
       </c>
-      <c r="B11">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B12">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B12">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="B13">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2021</v>
       </c>
-      <c r="B13">
-        <v>0.2</v>
+      <c r="B14">
+        <v>2E-3</v>
+      </c>
+      <c r="C14">
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>